--- a/Past Exams/Q2 2021 Autumn Model.xlsx
+++ b/Past Exams/Q2 2021 Autumn Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\Repo\Past Exams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f900db151b19f36/Documents/GitHub/Games_Dev_Group_Project-2022/Past Exams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B78488-E848-4A53-84C5-999BD0D64E88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B78488-E848-4A53-84C5-999BD0D64E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{30274EA2-76D6-4D0B-9608-D44CF73F8931}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{30274EA2-76D6-4D0B-9608-D44CF73F8931}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,10 +121,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,13 +1130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC515A68-9AEA-441F-BC4A-9DDB77411F6B}">
   <dimension ref="A3:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1318,7 +1328,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28">
@@ -1330,7 +1340,7 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="2">
@@ -1353,7 +1363,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="4"/>
       <c r="D29">
         <v>0</v>
       </c>
@@ -1363,7 +1373,7 @@
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="2">
         <v>4</v>
       </c>
@@ -1384,7 +1394,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30">
@@ -1396,7 +1406,7 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>2</v>
       </c>
       <c r="I30" s="2">
@@ -1419,7 +1429,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="4"/>
       <c r="D31">
         <v>1</v>
       </c>
@@ -1429,7 +1439,7 @@
       <c r="F31">
         <v>6</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="2">
         <v>5</v>
       </c>
@@ -1450,7 +1460,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32">
@@ -1462,7 +1472,7 @@
       <c r="F32">
         <v>5</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <v>6</v>
       </c>
       <c r="I32" s="2">
@@ -1485,7 +1495,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="4"/>
       <c r="D33">
         <v>4</v>
       </c>
@@ -1495,7 +1505,7 @@
       <c r="F33">
         <v>6</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="2">
         <v>3</v>
       </c>
@@ -1516,7 +1526,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D34">
@@ -1528,7 +1538,7 @@
       <c r="F34">
         <v>7</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <v>5</v>
       </c>
       <c r="I34" s="2">
@@ -1551,7 +1561,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="4"/>
       <c r="D35">
         <v>0</v>
       </c>
@@ -1561,7 +1571,7 @@
       <c r="F35">
         <v>4</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="2">
         <v>2</v>
       </c>
@@ -1582,7 +1592,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D36">
@@ -1594,7 +1604,7 @@
       <c r="F36">
         <v>7</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <v>3</v>
       </c>
       <c r="I36" s="2">
@@ -1617,7 +1627,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="4"/>
       <c r="D37">
         <v>2</v>
       </c>
@@ -1627,7 +1637,7 @@
       <c r="F37">
         <v>3</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="2">
         <v>7</v>
       </c>
@@ -1648,7 +1658,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D38">
@@ -1660,7 +1670,7 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>4</v>
       </c>
       <c r="I38" s="2">
@@ -1683,7 +1693,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="B39" s="4"/>
       <c r="D39">
         <v>0</v>
       </c>
@@ -1693,7 +1703,7 @@
       <c r="F39">
         <v>5</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="2">
         <v>4</v>
       </c>
@@ -1860,11 +1870,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -1872,6 +1877,11 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
